--- a/Documentação/Planilhas/Conferencia_LIS.xlsx
+++ b/Documentação/Planilhas/Conferencia_LIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
   <si>
     <t>CD_CIA</t>
   </si>
@@ -384,12 +384,6 @@
   </si>
   <si>
     <t>36066447</t>
-  </si>
-  <si>
-    <t>tdsls4100m000 (Ordens de Vendas)</t>
-  </si>
-  <si>
-    <t>znslsc500m000 (Pedidos Integrados)</t>
   </si>
   <si>
     <t>Informar o nr_pedido no campo "Pedido do Cliente".Pedir o seu detalhamento. Na aba superior "Expedição", pegar o código da lista de casamento</t>
@@ -415,13 +409,22 @@
   </si>
   <si>
     <t>Aguardando a liberação do histórico da ordem para conferir o campo</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500m000 (Pedidos Integrados)</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Vendas)</t>
+  </si>
+  <si>
+    <t>znslsc524m000, znslsc500m000 e tdsls4100m000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,15 +457,7 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -534,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,25 +553,13 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -585,13 +568,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,15 +894,15 @@
   </sheetPr>
   <dimension ref="A2:AR36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
@@ -954,290 +946,294 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A9" s="10" t="s">
+    <row r="6" spans="1:6" ht="55.5" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>86</v>
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="1" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>131</v>
+      <c r="D22" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="30" spans="1:6">
       <c r="E30" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1259,18 +1255,19 @@
       <c r="E36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A6:C8"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="D6:D8"/>
+  <mergeCells count="12">
     <mergeCell ref="E30:E36"/>
     <mergeCell ref="E22:E28"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="C22:C28"/>
+    <mergeCell ref="A18:C20"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
